--- a/MRCB/Poslednee.xlsx
+++ b/MRCB/Poslednee.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna_vidzianeyeva\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studies\4_course\UniversityMaterials\MRCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268BC366-344A-4938-A59A-BCF3C91BBF91}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{64B2DD14-AED3-484E-BD72-C0D3877073AC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Вариант 3</t>
   </si>
@@ -67,9 +66,6 @@
   </si>
   <si>
     <t>Последняя цена</t>
-  </si>
-  <si>
-    <t>Объём в рублях</t>
   </si>
   <si>
     <t>Нормированный 5-уровневые инерционный осциллятор</t>
@@ -107,7 +103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
@@ -209,13 +205,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -230,9 +223,6 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -240,12 +230,15 @@
     <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -263,7 +256,1441 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1236920384951881"/>
+          <c:y val="0.30311388159813357"/>
+          <c:w val="0.87630796150481194"/>
+          <c:h val="0.6714577865266842"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]КР 2 Задание 1'!$N$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MACD-H</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]КР 2 Задание 1'!$N$22:$N$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-0.41719907482801233</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.14423495669422337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0961570090071149E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13300227970236023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2238395154247144E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.14240625121863104</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.8781882862233488E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.63626342754799836</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.4878360228772074</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-49BE-403C-87D1-DC3505CBF891}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="545270824"/>
+        <c:axId val="545270040"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]КР 2 Задание 1'!$L$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Быстрая линия MACD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$22:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>mm/dd/yy;@</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>35913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35914</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35915</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35920</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35921</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35922</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35923</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35927</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35928</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]КР 2 Задание 1'!$L$22:$L$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-0.26542433094755324</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.45773760653985107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.44312217975308954</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.26578580681660924</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.25348735412937629</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.44336235575421767</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.48173819957052899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.3300894363011935</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.9805374668041367</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-49BE-403C-87D1-DC3505CBF891}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]КР 2 Задание 1'!$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ЕМА7. Сигнальная лини</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$22:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>mm/dd/yy;@</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>35913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35914</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35915</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35920</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35921</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35922</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35923</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35927</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35928</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]КР 2 Задание 1'!$M$22:$M$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.15177474388045908</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.3135026498456277</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.45408374984316069</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.39878808651896946</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.262711193644801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.30095610453558663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.4529563167082955</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.69382600875319511</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.4927014439269293</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-49BE-403C-87D1-DC3505CBF891}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="545270824"/>
+        <c:axId val="545270040"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="545270824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="545270040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="545270040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="545270824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30140931800558673"/>
+          <c:y val="0.10995260663507109"/>
+          <c:w val="0.49967805994177278"/>
+          <c:h val="4.8874322064163263E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>График-гистограмма</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:stockChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Максимальная цена</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$6:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>mm/dd/yy;@</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>35891</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35892</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35893</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35894</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35895</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35898</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35900</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35902</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35905</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35906</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35907</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35908</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35909</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35912</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35913</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35914</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35915</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35920</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35921</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35922</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>35923</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35927</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>35928</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$6:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>104.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>102.56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>102.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>103.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>103.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>102.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>104.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>106.86</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>108.97</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>106.64</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>101.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>102.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>102.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>106.01</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>102.29</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>101.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>99.45</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>92.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E1AE-461B-9B7C-E39B6E14789D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Минимальная цена</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$6:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>mm/dd/yy;@</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>35891</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35892</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35893</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35894</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35895</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35898</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35900</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35902</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35905</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35906</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35907</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35908</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35909</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35912</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35913</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35914</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35915</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35920</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35921</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35922</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>35923</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35927</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>35928</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$6:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>103.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>101.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>101.54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>102.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>102.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>102.61</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>101.95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>102.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>103.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>105.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>104.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>102.05</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>100.51</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>99.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>102.21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>98.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>94.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E1AE-461B-9B7C-E39B6E14789D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Последняя цена</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$6:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>mm/dd/yy;@</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>35891</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35892</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35893</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35894</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35895</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35898</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35900</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35902</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35905</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35906</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35907</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35908</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35909</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35912</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35913</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35914</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35915</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35920</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35921</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35922</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>35923</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35927</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>35928</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$6:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>104.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>102.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>102.31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>101.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>102.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>103.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>102.45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>104.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>105.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>107.99</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>102.05</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>101.15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>101.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>102.85</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>102.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>94.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>92.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E1AE-461B-9B7C-E39B6E14789D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:axId val="1116471648"/>
+        <c:axId val="968527168"/>
+      </c:stockChart>
+      <c:dateAx>
+        <c:axId val="1116471648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mm/dd/yy;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="968527168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="968527168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="85"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1116471648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -305,6 +1732,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -330,7 +1758,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1224,7 +2652,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1240,7 +2668,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="545269256"/>
@@ -1300,7 +2728,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="545267296"/>
@@ -1341,1398 +2769,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Комбинированная</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> диаграмма</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.31501377952755916"/>
-          <c:y val="2.777777777777779E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.1236920384951881"/>
-          <c:y val="0.30311388159813357"/>
-          <c:w val="0.87630796150481194"/>
-          <c:h val="0.6714577865266842"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]КР 2 Задание 1'!$N$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MACD-H</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]КР 2 Задание 1'!$N$22:$N$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>-0.41719907482801233</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.14423495669422337</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0961570090071149E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13300227970236023</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.2238395154247144E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.14240625121863104</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-2.8781882862233488E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.63626342754799836</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.4878360228772074</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-49BE-403C-87D1-DC3505CBF891}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:axId val="545270824"/>
-        <c:axId val="545270040"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]КР 2 Задание 1'!$L$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Быстрая линия MACD</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]КР 2 Задание 1'!$L$22:$L$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>-0.26542433094755324</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.45773760653985107</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.44312217975308954</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.26578580681660924</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.25348735412937629</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.44336235575421767</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.48173819957052899</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.3300894363011935</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.9805374668041367</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-49BE-403C-87D1-DC3505CBF891}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]КР 2 Задание 1'!$M$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ЕМА7. Сигнальная лини</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]КР 2 Задание 1'!$M$22:$M$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.15177474388045908</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.3135026498456277</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.45408374984316069</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.39878808651896946</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.262711193644801</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.30095610453558663</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.4529563167082955</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.69382600875319511</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.4927014439269293</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-49BE-403C-87D1-DC3505CBF891}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="545270824"/>
-        <c:axId val="545270040"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="545270824"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="545270040"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="545270040"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="545270824"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>График-гистограмма</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:stockChart>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$C$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Максимальная цена</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Лист1!$A$6:$A$30</c:f>
-              <c:numCache>
-                <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>35891</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35892</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35893</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35894</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35895</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35898</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35899</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35900</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35901</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35902</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>35905</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>35906</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>35907</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>35908</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>35909</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>35912</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>35913</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>35914</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>35915</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>35920</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>35921</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>35922</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>35923</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>35927</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>35928</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$C$6:$C$30</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>104.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>104.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>102.95</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>102.56</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>102.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>102.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>103.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>104.25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>103.6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>102.75</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>104.8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>106.86</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>108.97</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>106.64</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>101.7</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>102.4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>102.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>106.01</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>102.29</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>101.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>100.75</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>99.45</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>92.32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E1AE-461B-9B7C-E39B6E14789D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$D$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Минимальная цена</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Лист1!$A$6:$A$30</c:f>
-              <c:numCache>
-                <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>35891</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35892</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35893</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35894</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35895</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35898</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35899</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35900</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35901</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35902</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>35905</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>35906</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>35907</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>35908</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>35909</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>35912</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>35913</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>35914</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>35915</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>35920</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>35921</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>35922</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>35923</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>35927</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>35928</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$D$6:$D$30</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>103.43</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>103.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>102.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>101.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>101.54</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>102.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>102.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>102.61</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>101.95</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>102.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>103.3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>105.3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>104.6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>102.05</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>99.8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>100.51</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>99.7</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>102.21</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>100.25</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>98.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>94.3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>89</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E1AE-461B-9B7C-E39B6E14789D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$E$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Последняя цена</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="dot"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Лист1!$A$6:$A$30</c:f>
-              <c:numCache>
-                <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>35891</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35892</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35893</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35894</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35895</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35898</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35899</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35900</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35901</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35902</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>35905</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>35906</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>35907</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>35908</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>35909</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>35912</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>35913</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>35914</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>35915</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>35920</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>35921</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>35922</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>35923</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>35927</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>35928</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$E$6:$E$30</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>104.37</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>103.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>102.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>101.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>102.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>102.31</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>101.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>102.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>103.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>102.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>102.45</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>104.8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>105.35</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>107.99</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>102.05</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>100.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>101.15</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>101.8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>102.85</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>102.1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>100.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>100.75</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>94.3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>92.15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E1AE-461B-9B7C-E39B6E14789D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:axId val="1116471648"/>
-        <c:axId val="968527168"/>
-      </c:stockChart>
-      <c:dateAx>
-        <c:axId val="1116471648"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="mm/dd/yy;@" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="968527168"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="968527168"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="85"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1116471648"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3859,23 +3896,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>11204</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>177799</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>145675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2">
+        <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6605F571-6012-428C-9383-8201D081DB68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{269E6C4F-1247-4A3C-A025-8081A1774760}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3898,28 +3935,26 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>588170</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>188118</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>778670</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3">
+        <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{269E6C4F-1247-4A3C-A025-8081A1774760}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{813F9863-C1FE-436E-9B1A-27F7E8ED7304}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3935,27 +3970,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1230313</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142081</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Диаграмма 4">
+        <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{813F9863-C1FE-436E-9B1A-27F7E8ED7304}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6605F571-6012-428C-9383-8201D081DB68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4744,11 +4781,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43C7CE3-3F79-4A72-9645-5532783A08F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F30"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4759,1315 +4796,1315 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="5">
+      <c r="B2" s="14"/>
+      <c r="C2" s="4">
         <v>35891</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5">
+      <c r="B3" s="14"/>
+      <c r="C3" s="4">
         <v>35928</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <f>2/(5+1)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="7" t="s">
+      <c r="K3" s="5"/>
+      <c r="L3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="6">
         <f>2/(7+1)</f>
         <v>0.25</v>
       </c>
-      <c r="N3" s="6"/>
+      <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <f>2/(9+1)</f>
         <v>0.2</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:17" ht="63" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="K5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="L5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="M5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="N5" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>35891</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>104.3</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>104.5</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>103.43</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>104.37</v>
       </c>
-      <c r="F6" s="12">
-        <v>17980851</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
+      <c r="F6" s="10">
+        <v>35891</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>35892</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>103.5</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>104.6</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>103.4</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>103.75</v>
       </c>
-      <c r="F7" s="12">
-        <v>16260272</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
+      <c r="F7" s="10">
+        <v>35892</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>35893</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>103.61</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>104</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>102.4</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>102.5</v>
       </c>
-      <c r="F8" s="12">
-        <v>21485653</v>
-      </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
+      <c r="F8" s="10">
+        <v>35893</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>35894</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>102.28</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>102.95</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>100.8</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>101.3</v>
       </c>
-      <c r="F9" s="12">
-        <v>39664906</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
+      <c r="F9" s="10">
+        <v>35894</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>35895</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>101.45</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>102.56</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>100</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>102.4</v>
       </c>
-      <c r="F10" s="12">
-        <v>29849278</v>
-      </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13">
+      <c r="F10" s="10">
+        <v>35895</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11">
         <f>SUM(E6:E10)/5</f>
         <v>102.864</v>
       </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>35898</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>102.56</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>102.9</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>101.8</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>102.31</v>
       </c>
-      <c r="F11" s="12">
-        <v>14795608</v>
-      </c>
-      <c r="G11" s="14">
+      <c r="F11" s="10">
+        <v>35898</v>
+      </c>
+      <c r="G11" s="12">
         <f>E11-E6</f>
         <v>-2.0600000000000023</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <f t="shared" ref="H11:H30" si="0">E11/E6*100</f>
         <v>98.026252754622973</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <f>SUM(E6:E10)/5</f>
         <v>102.864</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="12">
         <f>$J$3*E11+(1-$J$3)*J10</f>
         <v>102.67933333333335</v>
       </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>35899</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>102.05</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>102.8</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>101.54</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>101.8</v>
       </c>
-      <c r="F12" s="12">
-        <v>18913233</v>
-      </c>
-      <c r="G12" s="14">
+      <c r="F12" s="10">
+        <v>35899</v>
+      </c>
+      <c r="G12" s="12">
         <f t="shared" ref="G12:G30" si="1">E12-E7</f>
         <v>-1.9500000000000028</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <f t="shared" si="0"/>
         <v>98.120481927710841</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <f>SUM(E7:E11)/5</f>
         <v>102.452</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="12">
         <f t="shared" ref="J12:J30" si="2">$J$3*E12+(1-$J$3)*J11</f>
         <v>102.38622222222224</v>
       </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>35900</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>102.85</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>103.5</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>102.5</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>102.7</v>
       </c>
-      <c r="F13" s="12">
-        <v>33831327</v>
-      </c>
-      <c r="G13" s="14">
+      <c r="F13" s="10">
+        <v>35900</v>
+      </c>
+      <c r="G13" s="12">
         <f t="shared" si="1"/>
         <v>0.20000000000000284</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <f t="shared" si="0"/>
         <v>100.19512195121951</v>
       </c>
-      <c r="I13" s="8">
-        <f t="shared" ref="I11:I13" si="3">SUM(E8:E12)/5</f>
+      <c r="I13" s="7">
+        <f t="shared" ref="I13" si="3">SUM(E8:E12)/5</f>
         <v>102.06200000000001</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="12">
         <f t="shared" si="2"/>
         <v>102.49081481481484</v>
       </c>
-      <c r="K13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
+      <c r="K13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>35901</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>103</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>104.25</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>102.6</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>103</v>
       </c>
-      <c r="F14" s="12">
-        <v>47749962</v>
-      </c>
-      <c r="G14" s="14">
+      <c r="F14" s="10">
+        <v>35901</v>
+      </c>
+      <c r="G14" s="12">
         <f t="shared" si="1"/>
         <v>1.7000000000000028</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <f t="shared" si="0"/>
         <v>101.6781836130306</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="7">
         <f>SUM(E9:E13)/5</f>
         <v>102.102</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="12">
         <f t="shared" si="2"/>
         <v>102.66054320987656</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="13">
         <f>SUM(E6:E14)/9</f>
         <v>102.68111111111112</v>
       </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>35902</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>104</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>105</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>102.61</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>103.3</v>
       </c>
-      <c r="F15" s="12">
-        <v>41828093</v>
-      </c>
-      <c r="G15" s="14">
+      <c r="F15" s="10">
+        <v>35902</v>
+      </c>
+      <c r="G15" s="12">
         <f>E15-E10</f>
         <v>0.89999999999999147</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <f t="shared" si="0"/>
         <v>100.87890625</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="7">
         <f t="shared" ref="I15:I30" si="4">SUM(E10:E14)/5</f>
         <v>102.44200000000001</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="12">
         <f t="shared" si="2"/>
         <v>102.87369547325105</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <f>$J$4*E15+(1-$J$4)*K14</f>
         <v>102.8048888888889</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="7">
         <f>J15-K15</f>
         <v>6.8806584362150147E-2</v>
       </c>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>35905</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>103.49</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>103.6</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>101.95</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>102.2</v>
       </c>
-      <c r="F16" s="12">
-        <v>36229838</v>
-      </c>
-      <c r="G16" s="14">
+      <c r="F16" s="10">
+        <v>35905</v>
+      </c>
+      <c r="G16" s="12">
         <f t="shared" si="1"/>
         <v>-0.10999999999999943</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="7">
         <f t="shared" si="0"/>
         <v>99.892483628188828</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="7">
         <f t="shared" si="4"/>
         <v>102.622</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="12">
         <f t="shared" si="2"/>
         <v>102.6491303155007</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="7">
         <f t="shared" ref="K16:K30" si="5">$J$4*E16+(1-$J$4)*K15</f>
         <v>102.68391111111112</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="7">
         <f t="shared" ref="L16:L30" si="6">J16-K16</f>
         <v>-3.4780795610416249E-2</v>
       </c>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <v>35906</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>102.48</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>102.75</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>102.1</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>102.45</v>
       </c>
-      <c r="F17" s="12">
-        <v>39574943</v>
-      </c>
-      <c r="G17" s="8">
+      <c r="F17" s="10">
+        <v>35906</v>
+      </c>
+      <c r="G17" s="7">
         <f t="shared" si="1"/>
         <v>0.65000000000000568</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="7">
         <f t="shared" si="0"/>
         <v>100.63850687622791</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="7">
         <f t="shared" si="4"/>
         <v>102.6</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="12">
         <f t="shared" si="2"/>
         <v>102.58275354366714</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="7">
         <f t="shared" si="5"/>
         <v>102.6371288888889</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="7">
         <f t="shared" si="6"/>
         <v>-5.4375345221757243E-2</v>
       </c>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
         <v>35907</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>104.1</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>104.8</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>103.3</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <v>104.8</v>
       </c>
-      <c r="F18" s="12">
-        <v>28096817</v>
-      </c>
-      <c r="G18" s="8">
+      <c r="F18" s="10">
+        <v>35907</v>
+      </c>
+      <c r="G18" s="7">
         <f t="shared" si="1"/>
         <v>2.0999999999999943</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="7">
         <f t="shared" si="0"/>
         <v>102.04479065238559</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="7">
         <f t="shared" si="4"/>
         <v>102.72999999999999</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="12">
         <f t="shared" si="2"/>
         <v>103.32183569577811</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="7">
         <f t="shared" si="5"/>
         <v>103.06970311111112</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="7">
         <f t="shared" si="6"/>
         <v>0.25213258466698107</v>
       </c>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="A19" s="10">
         <v>35908</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>105.8</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>106.86</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>105.3</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <v>105.35</v>
       </c>
-      <c r="F19" s="12">
-        <v>49731400</v>
-      </c>
-      <c r="G19" s="8">
+      <c r="F19" s="10">
+        <v>35908</v>
+      </c>
+      <c r="G19" s="7">
         <f t="shared" si="1"/>
         <v>2.3499999999999943</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="7">
         <f t="shared" si="0"/>
         <v>102.28155339805825</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="7">
         <f>SUM(E14:E18)/5</f>
         <v>103.15</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="12">
         <f>$J$3*E19+(1-$J$3)*J18</f>
         <v>103.99789046385207</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="7">
         <f t="shared" si="5"/>
         <v>103.52576248888892</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="7">
         <f t="shared" si="6"/>
         <v>0.47212797496315773</v>
       </c>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="A20" s="10">
         <v>35909</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>104.6</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>108.97</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>104.6</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="7">
         <v>107.99</v>
       </c>
-      <c r="F20" s="12">
-        <v>39249936</v>
-      </c>
-      <c r="G20" s="8">
+      <c r="F20" s="10">
+        <v>35909</v>
+      </c>
+      <c r="G20" s="7">
         <f t="shared" si="1"/>
         <v>4.6899999999999977</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="7">
         <f t="shared" si="0"/>
         <v>104.540174249758</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="7">
         <f t="shared" si="4"/>
         <v>103.62</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="12">
         <f t="shared" si="2"/>
         <v>105.32859364256805</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="7">
         <f t="shared" si="5"/>
         <v>104.41860999111114</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="7">
         <f t="shared" si="6"/>
         <v>0.90998365145691196</v>
       </c>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+      <c r="A21" s="10">
         <v>35912</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>106.6</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>106.64</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>102.05</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <v>102.05</v>
       </c>
-      <c r="F21" s="12">
-        <v>29008925</v>
-      </c>
-      <c r="G21" s="8">
+      <c r="F21" s="10">
+        <v>35912</v>
+      </c>
+      <c r="G21" s="7">
         <f t="shared" si="1"/>
         <v>-0.15000000000000568</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="7">
         <f t="shared" si="0"/>
         <v>99.853228962817994</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="7">
         <f t="shared" si="4"/>
         <v>104.55799999999999</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="12">
         <f t="shared" si="2"/>
         <v>104.23572909504537</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="7">
         <f t="shared" si="5"/>
         <v>103.94488799288891</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="7">
         <f t="shared" si="6"/>
         <v>0.29084110215646319</v>
       </c>
-      <c r="M21" s="15">
+      <c r="M21" s="13">
         <f>SUM(L15:L21)/7</f>
         <v>0.27210510811049865</v>
       </c>
-      <c r="N21" s="13"/>
+      <c r="N21" s="11"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+      <c r="A22" s="10">
         <v>35913</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>101.14</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>101.7</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>99.8</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="7">
         <v>100.5</v>
       </c>
-      <c r="F22" s="12">
-        <v>20747089</v>
-      </c>
-      <c r="G22" s="8">
+      <c r="F22" s="10">
+        <v>35913</v>
+      </c>
+      <c r="G22" s="7">
         <f t="shared" si="1"/>
         <v>-1.9500000000000028</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="7">
         <f t="shared" si="0"/>
         <v>98.096632503660317</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="7">
         <f t="shared" si="4"/>
         <v>104.52799999999999</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="12">
         <f t="shared" si="2"/>
         <v>102.99048606336359</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="7">
         <f t="shared" si="5"/>
         <v>103.25591039431114</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="7">
         <f t="shared" si="6"/>
         <v>-0.26542433094755324</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="7">
         <f>$M$3*L22+(1-$M$3)*L21</f>
         <v>0.15177474388045908</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="7">
         <f>L22-M22</f>
         <v>-0.41719907482801233</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+      <c r="A23" s="10">
         <v>35914</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>100.98</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <v>102.4</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>100.51</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="7">
         <v>101.15</v>
       </c>
-      <c r="F23" s="12">
-        <v>25272921</v>
-      </c>
-      <c r="G23" s="8">
+      <c r="F23" s="10">
+        <v>35914</v>
+      </c>
+      <c r="G23" s="7">
         <f t="shared" si="1"/>
         <v>-3.6499999999999915</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="7">
         <f t="shared" si="0"/>
         <v>96.517175572519093</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="7">
         <f t="shared" si="4"/>
         <v>104.13800000000001</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="12">
         <f t="shared" si="2"/>
         <v>102.37699070890908</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="7">
         <f t="shared" si="5"/>
         <v>102.83472831544893</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="7">
         <f t="shared" si="6"/>
         <v>-0.45773760653985107</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M23" s="7">
         <f>$M$3*L23+(1-$M$3)*L22</f>
         <v>-0.3135026498456277</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="7">
         <f t="shared" ref="N23:N30" si="7">L23-M23</f>
         <v>-0.14423495669422337</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+      <c r="A24" s="10">
         <v>35915</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>102.5</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>102.5</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>99.7</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="7">
         <v>101.8</v>
       </c>
-      <c r="F24" s="12">
-        <v>15814550</v>
-      </c>
-      <c r="G24" s="8">
+      <c r="F24" s="10">
+        <v>35915</v>
+      </c>
+      <c r="G24" s="7">
         <f t="shared" si="1"/>
         <v>-3.5499999999999972</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="7">
         <f t="shared" si="0"/>
         <v>96.630280018984337</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="7">
         <f t="shared" si="4"/>
         <v>103.40799999999999</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="12">
         <f t="shared" si="2"/>
         <v>102.18466047260605</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="7">
         <f t="shared" si="5"/>
         <v>102.62778265235914</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="7">
         <f t="shared" si="6"/>
         <v>-0.44312217975308954</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="7">
         <f>$M$3*L24+(1-$M$3)*L23</f>
         <v>-0.45408374984316069</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N24" s="7">
         <f t="shared" si="7"/>
         <v>1.0961570090071149E-2</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+      <c r="A25" s="10">
         <v>35920</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>105</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>106.01</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>102.21</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="7">
         <v>102.85</v>
       </c>
-      <c r="F25" s="12">
-        <v>26487033</v>
-      </c>
-      <c r="G25" s="8">
+      <c r="F25" s="10">
+        <v>35920</v>
+      </c>
+      <c r="G25" s="7">
         <f t="shared" si="1"/>
         <v>-5.1400000000000006</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="7">
         <f t="shared" si="0"/>
         <v>95.24030002778035</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="7">
         <f t="shared" si="4"/>
         <v>102.69799999999998</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="12">
         <f t="shared" si="2"/>
         <v>102.40644031507071</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="7">
         <f t="shared" si="5"/>
         <v>102.67222612188732</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25" s="7">
         <f t="shared" si="6"/>
         <v>-0.26578580681660924</v>
       </c>
-      <c r="M25" s="8">
-        <f t="shared" ref="M23:M30" si="8">$M$3*L25+(1-$M$3)*L24</f>
+      <c r="M25" s="7">
+        <f t="shared" ref="M25:M30" si="8">$M$3*L25+(1-$M$3)*L24</f>
         <v>-0.39878808651896946</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N25" s="7">
         <f t="shared" si="7"/>
         <v>0.13300227970236023</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+      <c r="A26" s="10">
         <v>35921</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>101.2</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>102.29</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>101</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="7">
         <v>102.1</v>
       </c>
-      <c r="F26" s="12">
-        <v>7638774</v>
-      </c>
-      <c r="G26" s="8">
+      <c r="F26" s="10">
+        <v>35921</v>
+      </c>
+      <c r="G26" s="7">
         <f t="shared" si="1"/>
         <v>4.9999999999997158E-2</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="7">
         <f t="shared" si="0"/>
         <v>100.04899559039686</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="7">
         <f t="shared" si="4"/>
         <v>101.67</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="12">
         <f t="shared" si="2"/>
         <v>102.30429354338048</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="7">
         <f t="shared" si="5"/>
         <v>102.55778089750986</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="7">
         <f t="shared" si="6"/>
         <v>-0.25348735412937629</v>
       </c>
-      <c r="M26" s="8">
+      <c r="M26" s="7">
         <f t="shared" si="8"/>
         <v>-0.262711193644801</v>
       </c>
-      <c r="N26" s="8">
+      <c r="N26" s="7">
         <f t="shared" si="7"/>
         <v>9.2238395154247144E-3</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
+      <c r="A27" s="10">
         <v>35922</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>101.2</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>101.5</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <v>100.25</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="7">
         <v>100.5</v>
       </c>
-      <c r="F27" s="12">
-        <v>8858149</v>
-      </c>
-      <c r="G27" s="8">
+      <c r="F27" s="10">
+        <v>35922</v>
+      </c>
+      <c r="G27" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="7">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="7">
         <f t="shared" si="4"/>
         <v>101.67999999999999</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="12">
         <f t="shared" si="2"/>
         <v>101.70286236225367</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="7">
         <f t="shared" si="5"/>
         <v>102.14622471800789</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27" s="7">
         <f t="shared" si="6"/>
         <v>-0.44336235575421767</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M27" s="7">
         <f t="shared" si="8"/>
         <v>-0.30095610453558663</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N27" s="7">
         <f t="shared" si="7"/>
         <v>-0.14240625121863104</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
+      <c r="A28" s="10">
         <v>35923</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>99.1</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>100.75</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7">
         <v>98.5</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="7">
         <v>100.75</v>
       </c>
-      <c r="F28" s="12">
-        <v>13030055</v>
-      </c>
-      <c r="G28" s="8">
+      <c r="F28" s="10">
+        <v>35923</v>
+      </c>
+      <c r="G28" s="7">
         <f t="shared" si="1"/>
         <v>-0.40000000000000568</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="7">
         <f t="shared" si="0"/>
         <v>99.604547701433503</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="7">
         <f>SUM(E23:E27)/5</f>
         <v>101.67999999999999</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28" s="12">
         <f t="shared" si="2"/>
         <v>101.38524157483579</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="7">
         <f t="shared" si="5"/>
         <v>101.86697977440632</v>
       </c>
-      <c r="L28" s="8">
+      <c r="L28" s="7">
         <f t="shared" si="6"/>
         <v>-0.48173819957052899</v>
       </c>
-      <c r="M28" s="8">
+      <c r="M28" s="7">
         <f t="shared" si="8"/>
         <v>-0.4529563167082955</v>
       </c>
-      <c r="N28" s="8">
+      <c r="N28" s="7">
         <f t="shared" si="7"/>
         <v>-2.8781882862233488E-2</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
+      <c r="A29" s="10">
         <v>35927</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="7">
         <v>99.45</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <v>99.45</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="7">
         <v>94.3</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="7">
         <v>94.3</v>
       </c>
-      <c r="F29" s="12">
-        <v>14905497</v>
-      </c>
-      <c r="G29" s="8">
+      <c r="F29" s="10">
+        <v>35927</v>
+      </c>
+      <c r="G29" s="7">
         <f t="shared" si="1"/>
         <v>-7.5</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="7">
         <f t="shared" si="0"/>
         <v>92.632612966601187</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="7">
         <f t="shared" si="4"/>
         <v>101.6</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J29" s="12">
         <f t="shared" si="2"/>
         <v>99.023494383223863</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29" s="7">
         <f t="shared" si="5"/>
         <v>100.35358381952506</v>
       </c>
-      <c r="L29" s="8">
+      <c r="L29" s="7">
         <f t="shared" si="6"/>
         <v>-1.3300894363011935</v>
       </c>
-      <c r="M29" s="8">
+      <c r="M29" s="7">
         <f t="shared" si="8"/>
         <v>-0.69382600875319511</v>
       </c>
-      <c r="N29" s="8">
+      <c r="N29" s="7">
         <f t="shared" si="7"/>
         <v>-0.63626342754799836</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+      <c r="A30" s="10">
         <v>35928</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="7">
         <v>91.4</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <v>92.32</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="7">
         <v>89</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="7">
         <v>92.15</v>
       </c>
-      <c r="F30" s="12">
-        <v>15503942</v>
-      </c>
-      <c r="G30" s="8">
+      <c r="F30" s="10">
+        <v>35928</v>
+      </c>
+      <c r="G30" s="7">
         <f t="shared" si="1"/>
         <v>-10.699999999999989</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="7">
         <f t="shared" si="0"/>
         <v>89.596499756927571</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="7">
         <f t="shared" si="4"/>
         <v>100.1</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J30" s="12">
         <f t="shared" si="2"/>
         <v>96.732329588815915</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30" s="7">
         <f t="shared" si="5"/>
         <v>98.712867055620052</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30" s="7">
         <f t="shared" si="6"/>
         <v>-1.9805374668041367</v>
       </c>
-      <c r="M30" s="8">
+      <c r="M30" s="7">
         <f t="shared" si="8"/>
         <v>-1.4927014439269293</v>
       </c>
-      <c r="N30" s="8">
+      <c r="N30" s="7">
         <f t="shared" si="7"/>
         <v>-0.4878360228772074</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
+      <c r="A33" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6078,6 +6115,10 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="M22:M30" formula="1"/>
+    <ignoredError sqref="I11:K30 J10" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>